--- a/data/isbr전용/에기평/에기평_후기_GPT결과.xlsx
+++ b/data/isbr전용/에기평/에기평_후기_GPT결과.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\ibco-review_analysis\data\에기평\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\ibco-review_analysis\data\isbr전용\에기평\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B8CE6-E42C-420B-8BCF-8901B7972B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5566A-2929-44BE-9A8D-8517C060DD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,17 +796,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,13 +1114,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="42.3984375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="42.3984375" style="5" customWidth="1"/>
     <col min="12" max="12" width="25.3984375" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
     <col min="16" max="16" width="40.69921875" bestFit="1" customWidth="1"/>
@@ -1155,13 +1155,13 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="2" t="s">
         <v>200</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>115</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1253,7 +1253,7 @@
       <c r="I3" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1300,7 +1300,7 @@
       <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -1347,7 +1347,7 @@
       <c r="I5" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>118</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1394,7 +1394,7 @@
       <c r="I6" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>119</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1441,7 +1441,7 @@
       <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>120</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1488,7 +1488,7 @@
       <c r="I8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>121</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1535,7 +1535,7 @@
       <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>122</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1582,7 +1582,7 @@
       <c r="I10" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1629,7 +1629,7 @@
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>124</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1676,7 +1676,7 @@
       <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>125</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1723,7 +1723,7 @@
       <c r="I13" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>126</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1770,7 +1770,7 @@
       <c r="I14" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>127</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1817,7 +1817,7 @@
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1864,7 +1864,7 @@
       <c r="I16" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>129</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1911,7 +1911,7 @@
       <c r="I17" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>130</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1958,7 +1958,7 @@
       <c r="I18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>131</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -2005,7 +2005,7 @@
       <c r="I19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>132</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -2052,7 +2052,7 @@
       <c r="I20" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>133</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -2099,7 +2099,7 @@
       <c r="I21" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>134</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -2146,7 +2146,7 @@
       <c r="I22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>135</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -2193,7 +2193,7 @@
       <c r="I23" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>136</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -2240,7 +2240,7 @@
       <c r="I24" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>137</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -2287,7 +2287,7 @@
       <c r="I25" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>138</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2334,7 +2334,7 @@
       <c r="I26" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>139</v>
       </c>
       <c r="M26" s="3" t="s">
